--- a/config_1.19/fish_use_config.xlsx
+++ b/config_1.19/fish_use_config.xlsx
@@ -2187,24 +2187,15 @@
           <cell r="A181">
             <v>180</v>
           </cell>
-          <cell r="B181">
-            <v>36</v>
-          </cell>
         </row>
         <row r="182">
           <cell r="A182">
             <v>181</v>
           </cell>
-          <cell r="B182">
-            <v>36</v>
-          </cell>
         </row>
         <row r="183">
           <cell r="A183">
             <v>182</v>
-          </cell>
-          <cell r="B183">
-            <v>36</v>
           </cell>
         </row>
       </sheetData>
@@ -2839,8 +2830,8 @@
   <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5358,8 +5349,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="4">
-        <f>[1]use_fish!$B181</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C181" s="8"/>
     </row>
@@ -5369,8 +5359,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4">
-        <f>[1]use_fish!$B182</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182" s="8"/>
     </row>
@@ -5380,8 +5369,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="4">
-        <f>[1]use_fish!$B183</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C183" s="8"/>
     </row>
